--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>SNO</t>
   </si>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,19 +463,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
@@ -597,29 +600,29 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="6">
         <f>SUM(G5:G6)</f>
         <v>8.870000000000001</v>
@@ -636,26 +639,221 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="8.25" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45728</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6.79</v>
+      </c>
+      <c r="H18" s="7">
+        <v>300</v>
+      </c>
+      <c r="I18" s="7">
+        <f>G18*H18</f>
+        <v>2037</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f>ROUND(I18+J18,-1)</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45728</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="H19" s="7">
+        <v>300</v>
+      </c>
+      <c r="I19" s="7">
+        <f>G19*H19</f>
+        <v>624</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f>ROUND(I19+J19,-1)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6">
+        <f>SUM(G18:G19)</f>
+        <v>8.870000000000001</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <f>SUM(J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>SUM(K18:K19)</f>
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:K22"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>SNO</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>_______________________________________________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t>MURUGAN</t>
+  </si>
+  <si>
+    <t>SEETHAPAL</t>
+  </si>
+  <si>
+    <t>TN74BA7256</t>
+  </si>
+  <si>
+    <t>ASIR</t>
+  </si>
+  <si>
+    <t>THELLANTHI</t>
+  </si>
+  <si>
+    <t>TN74BA9942</t>
   </si>
 </sst>
 </file>
@@ -122,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,7 +162,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K22"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,19 +493,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
@@ -600,29 +630,29 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6">
         <f>SUM(G5:G6)</f>
         <v>8.870000000000001</v>
@@ -639,34 +669,34 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="8.25" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9"/>
@@ -791,29 +821,29 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="6">
         <f>SUM(G18:G19)</f>
         <v>8.870000000000001</v>
@@ -830,22 +860,338 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="30">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14">
+        <v>45789</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="13">
+        <v>4.63</v>
+      </c>
+      <c r="H30" s="13">
+        <v>300</v>
+      </c>
+      <c r="I30" s="13">
+        <f>G30*H30</f>
+        <v>1389</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f>ROUND(I30+J30,-1)</f>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="6">
+        <f>SUM(G30:G30)</f>
+        <v>4.63</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6">
+        <f>SUM(J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f>SUM(K30:K30)</f>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" ht="30">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="13">
+        <v>1</v>
+      </c>
+      <c r="B40" s="14">
+        <v>45820</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="13">
+        <v>6.86</v>
+      </c>
+      <c r="H40" s="13">
+        <v>300</v>
+      </c>
+      <c r="I40" s="13">
+        <f>G40*H40</f>
+        <v>2058</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <f>ROUND(I40+J40,-1)</f>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="6">
+        <f>SUM(G40:G40)</f>
+        <v>6.86</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6">
+        <f>SUM(J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <f>SUM(K40:K40)</f>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A37:K37"/>
     <mergeCell ref="A20:K20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:K22"/>
@@ -856,7 +1202,7 @@
     <mergeCell ref="A15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>SNO</t>
   </si>
@@ -88,15 +88,6 @@
   </si>
   <si>
     <t>TN74BA7256</t>
-  </si>
-  <si>
-    <t>ASIR</t>
-  </si>
-  <si>
-    <t>THELLANTHI</t>
-  </si>
-  <si>
-    <t>TN74BA9942</t>
   </si>
 </sst>
 </file>
@@ -162,12 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,6 +160,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +467,8 @@
   </sheetPr>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,19 +484,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
@@ -630,29 +621,29 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6">
         <f>SUM(G5:G6)</f>
         <v>8.870000000000001</v>
@@ -669,34 +660,34 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="8.25" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9"/>
@@ -821,29 +812,29 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="6">
         <f>SUM(G18:G19)</f>
         <v>8.870000000000001</v>
@@ -860,34 +851,34 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10"/>
@@ -938,10 +929,10 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>45789</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -953,51 +944,51 @@
       <c r="E30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <v>4.63</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <v>300</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="11">
         <f>G30*H30</f>
         <v>1389</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>0</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <f>ROUND(I30+J30,-1)</f>
         <v>1390</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="6">
         <f>SUM(G30:G30)</f>
         <v>4.63</v>
@@ -1014,34 +1005,32 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10"/>
@@ -1056,134 +1045,81 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="30">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="13">
-        <v>1</v>
-      </c>
-      <c r="B40" s="14">
-        <v>45820</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="13">
-        <v>6.86</v>
-      </c>
-      <c r="H40" s="13">
-        <v>300</v>
-      </c>
-      <c r="I40" s="13">
-        <f>G40*H40</f>
-        <v>2058</v>
-      </c>
-      <c r="J40" s="13">
-        <v>0</v>
-      </c>
-      <c r="K40" s="13">
-        <f>ROUND(I40+J40,-1)</f>
-        <v>2060</v>
-      </c>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6">
-        <f>SUM(G40:G40)</f>
-        <v>6.86</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
-        <f>SUM(J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <f>SUM(K40:K40)</f>
-        <v>2060</v>
-      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A15:K15"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:K43"/>
@@ -1192,14 +1128,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CASH.xlsx
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,8 +470,8 @@
   </sheetPr>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -851,19 +854,19 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="14" t="s">
